--- a/Data/GGEE_23_EndofCampAdv_Likert.xlsx
+++ b/Data/GGEE_23_EndofCampAdv_Likert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D4A4A6-CBF0-DA45-A4A0-9D0D618607BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2731BD8-42CC-874B-8D23-B08503C2E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16320" yWindow="500" windowWidth="12480" windowHeight="15640" firstSheet="2" activeTab="5" xr2:uid="{F89A0B6C-4067-D047-AD84-ABAEDCFCE447}"/>
   </bookViews>
